--- a/productos_amazon.xlsx
+++ b/productos_amazon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t>Producto</t>
   </si>
@@ -28,58 +28,64 @@
     <t>SAMSUNG Celular Galaxy A15 Negro 4GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
+    <t>Samsung Celular Galaxy M15 5G Gris 4GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
     <t>SAMSUNG Celular Galaxy A05 Plata 4GB RAM 64GB, Nacional con Garantía</t>
   </si>
   <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A05S 4GB 128GB Violeta</t>
+  </si>
+  <si>
     <t>SAMSUNG Galaxy A05 4+128GB Negro</t>
   </si>
   <si>
     <t>Samsung Celular Galaxy A35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy S23 FE Grafito 8GB RAM 256GB, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy M15 5G Gris 4GB RAM 128GB, Nacional con Garantía</t>
+    <t>SAMSUNG Celular Galaxy S23 FE Morado 8GB RAM 128GB, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Fit3 Grafito</t>
+  </si>
+  <si>
+    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S24 Ultra, Violeta, 12GB_256GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 Ultra 8GB_256GB Verde Desbloqueado</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy A55 256gb 8GB Azul Oscuro</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy S24 Ultra, Violeta, 12GB_256GB</t>
-  </si>
-  <si>
     <t>SAMSUNG Galaxy A15 8+256GB Amarillo 5G</t>
   </si>
   <si>
     <t>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
-    <t>Samsung Galaxy Fit3 Grafito</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 Ultra 8GB_256GB Verde Desbloqueado</t>
+    <t>SAMSUNG Galaxy A15 5G Azull Claro, 4GB_128GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
   </si>
   <si>
     <t>Samsung Galaxy S21 5G, versión estadounidense, 128 GB, Phantom Gray - desbloqueado (Reacondicionado)</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A05S 4GB 128GB Violeta</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A15 5G Azull Claro, 4GB_128GB</t>
+    <t>Cables USB C cortos de 1 pie Fasgear 3A de carga rápida USB A a tipo C 2.0 cable de carga trenzado de sincronización de datos compatible con Galaxy S24/ i-Pad 2022/ estación de carga (4 colores)</t>
+  </si>
+  <si>
+    <t>UGREEN Funda para Galaxy S24 Transparente, Case Anti-Amarillo con Protección contra Caídas, Carcasa Samsung S24 Resistente a Arañazos y Roturas</t>
   </si>
   <si>
     <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Negro</t>
@@ -88,172 +94,172 @@
     <t>X-Doria Revel Lux - Funda para iPhone X, Grado Militar, Prueba de caídas, Aluminio Coque para iPhone X, Color Negro Mate</t>
   </si>
   <si>
+    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 5G (128 GB, 8 GB) 6.1" AMOLED 2X, cámara 50MP, Global Volte, desbloqueado para todas las compañías (con cargador súper rápido de 25 W, Negro Phantom (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S9 FE+ Menta 8GB RAM 128GB, Spen, Smart Book Cover, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Audifonos inalámbricos Galaxy Buds3 Grafito, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A05s 4GB/128GB Verde (Light Green) Dual SIM SM-A057G</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G desbloqueado de fábrica Versión US 5G 8K Video, 64MP High Res128GB, Phantom Violet (SM-G991UZVAXAA) (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A34 5G Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M34 5G Azul obscuro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Pantalla 85" UHD 4K UN85CU70000FXZX</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Pantalla UHD de 65 Pulgadas (UN65DU8000FXZX)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, oro rosa)</t>
+  </si>
+  <si>
+    <t>Bigqin 5 Piezas Funda con Protector Pantalla Compatible con Samsung Galaxy Watch 7 40mm, PC Carcasa HD Cristal Templado Protector Ultra-Thin Anti-Rasguños, 5 Colores</t>
+  </si>
+  <si>
     <t>Protector de pantalla [2 Paq] para Samsung Galaxy S22 5G, RKINC película Mica de vidrio templado, compatible con huellas dactilares [Garantía de por vida] [Anti-rasguño] [Anti-rotura] [Sin burbujas]</t>
   </si>
   <si>
-    <t>Protector de pantalla [3 Paq] para Samsung Galaxy A53 5G/A52s 5G/A52 4G/5G / Oppo Reno 7 4G / Reno 8 5G, RKINC película de vidrio templado, 0.33 mm [Garantía de por vida] [Anti-rasguño][Sin burbujas]</t>
-  </si>
-  <si>
-    <t>SAMSUNG Audifonos inalámbricos Galaxy Buds3 Grafito, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
-  </si>
-  <si>
-    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S9 FE+ Menta 8GB RAM 128GB, Spen, Smart Book Cover, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
-  </si>
-  <si>
-    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G desbloqueado de fábrica Versión US 5G 8K Video, 64MP High Res128GB, Phantom Violet (SM-G991UZVAXAA) (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A05s 4GB/128GB Verde (Light Green) Dual SIM SM-A057G</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
-  </si>
-  <si>
-    <t>Samsung S22+ 128GB Verde desbloqueado (reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 3 5G F711U AT&amp;T 128GB Lavanda (reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Pantalla UHD de 65 Pulgadas (UN65DU8000FXZX)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A25 5G 6.5" FHD+ 256GB 8GB Blue</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy M34 5G Azul obscuro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 5G (128 GB, 8 GB) 6.1" AMOLED 2X, cámara 50MP, Global Volte, desbloqueado para todas las compañías (con cargador súper rápido de 25 W, Negro Phantom (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A51 6GB 128GB Negro</t>
+    <t>Auslbin Funda para Tablet de PU Compatible con Samsung Galaxy Tab A9 Plus / A9+ 11" 2023, Funda de Cuero para Tab con Patrones geométricos para Tab A9 Plus SM-X210 /X215, Verde</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A14 5G, para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
   </si>
   <si>
     <t>3 Unidad Funda Impermeable para Celular, Funda Flotante para iPhone, Samsung Galaxy, Huawei, HTC, LG, Sony, Nokia, Motorola y MAS</t>
   </si>
   <si>
-    <t>Auslbin Funda para Tablet de PU Compatible con Samsung Galaxy Tab A9 Plus / A9+ 11" 2023, Funda de Cuero para Tab con Patrones geométricos para Tab A9 Plus SM-X210 /X215, Verde</t>
-  </si>
-  <si>
-    <t>Simpeak 2 Piezas Protector Pantalla Compatible con Samsung Galaxy Tab A9 Plus 11", Mica Tablet HD Cristal Película Templado Premium Complet Compatible con Galaxy Tab A9 Plus 2023 [No Bubble][Anti-Huella]</t>
-  </si>
-  <si>
-    <t>ZHIYIWU - Funda protectora de silicona para Samsung Galaxy A14 5G, a prueba de golpes, con soporte para anillo, soporte de anillo, duradera y suave TPU antiarañazos, no amarillenta</t>
-  </si>
-  <si>
-    <t>SAMSUNG DA29-00020B - Filtro de Agua (Color Blanco)</t>
-  </si>
-  <si>
-    <t>The Perfect Dust Cover LLC - Funda para Samsung Xpress SL-C430W (nailon, impermeable, antiestática), color azul marino</t>
+    <t>SAMSUNG, Pantalla QLED de 65" Class Q60 Series, QLED 4K Smart TV, Quantum Processor Lite, Q-Symphony 3.0, Ultimate UHD Dimming, QN65Q60CDFXZA</t>
   </si>
   <si>
     <t>KepaiTok Funda para Samsung Galaxy Tab A7 Lite de 8,7 Pulgadas 2021 (SM-T220/T225/T227), 2 en 1 Resistente a los Golpes, Funda Protectora para Galaxy Tab A7 Lite con Soporte (Negra)</t>
   </si>
   <si>
-    <t>Bateria DMW-BMB9E Camara Fotografica LUMIX, Compatible: DMC-FZ40, FZ100,FZ40K,FZ47, FZ47K, FZ100GK, FZ150K,FZ40GK,FZ45, FZ47GK,FZ48,FZ150GK,FZ70K,FZ45,FZ48,FZ100K,FZ150K,FZ100GK,FZ47GK,FZ60,FZ62,FZ72</t>
-  </si>
-  <si>
     <t>6,399</t>
   </si>
   <si>
-    <t>2,195</t>
+    <t>2,666</t>
+  </si>
+  <si>
+    <t>2,475</t>
+  </si>
+  <si>
+    <t>2,671</t>
+  </si>
+  <si>
+    <t>2,599</t>
   </si>
   <si>
     <t>1,895</t>
   </si>
   <si>
-    <t>5,110</t>
-  </si>
-  <si>
-    <t>2,699</t>
-  </si>
-  <si>
-    <t>9,389</t>
-  </si>
-  <si>
-    <t>3,249</t>
-  </si>
-  <si>
-    <t>6,708</t>
+    <t>3,779</t>
+  </si>
+  <si>
+    <t>10,330</t>
+  </si>
+  <si>
+    <t>3,699</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>5,499</t>
   </si>
   <si>
     <t>19,999</t>
   </si>
   <si>
+    <t>15,199</t>
+  </si>
+  <si>
+    <t>6,898</t>
+  </si>
+  <si>
     <t>3,298</t>
   </si>
   <si>
     <t>3,966</t>
   </si>
   <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>15,199</t>
-  </si>
-  <si>
-    <t>4,567</t>
-  </si>
-  <si>
-    <t>4,998</t>
-  </si>
-  <si>
-    <t>2,259</t>
-  </si>
-  <si>
-    <t>9,278</t>
-  </si>
-  <si>
-    <t>2,899</t>
+    <t>3,999</t>
+  </si>
+  <si>
+    <t>2,149</t>
+  </si>
+  <si>
+    <t>4,529</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>263</t>
   </si>
   <si>
     <t>199</t>
@@ -262,109 +268,91 @@
     <t>399</t>
   </si>
   <si>
+    <t>2,240</t>
+  </si>
+  <si>
+    <t>7,990</t>
+  </si>
+  <si>
+    <t>13,495</t>
+  </si>
+  <si>
+    <t>5,894</t>
+  </si>
+  <si>
+    <t>4,837</t>
+  </si>
+  <si>
+    <t>6,999</t>
+  </si>
+  <si>
+    <t>2,499</t>
+  </si>
+  <si>
+    <t>9,699</t>
+  </si>
+  <si>
+    <t>2,246</t>
+  </si>
+  <si>
+    <t>17,999</t>
+  </si>
+  <si>
+    <t>4,844</t>
+  </si>
+  <si>
+    <t>3,649</t>
+  </si>
+  <si>
+    <t>3,639</t>
+  </si>
+  <si>
+    <t>5,483</t>
+  </si>
+  <si>
+    <t>6,910</t>
+  </si>
+  <si>
+    <t>10,879</t>
+  </si>
+  <si>
+    <t>6,437</t>
+  </si>
+  <si>
+    <t>4,299</t>
+  </si>
+  <si>
+    <t>19,376</t>
+  </si>
+  <si>
+    <t>15,999</t>
+  </si>
+  <si>
+    <t>11,999</t>
+  </si>
+  <si>
+    <t>7,397</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
     <t>159</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>2,499</t>
-  </si>
-  <si>
-    <t>6,324</t>
-  </si>
-  <si>
-    <t>5,894</t>
-  </si>
-  <si>
-    <t>13,495</t>
-  </si>
-  <si>
-    <t>2,240</t>
-  </si>
-  <si>
-    <t>4,992</t>
-  </si>
-  <si>
-    <t>3,898</t>
-  </si>
-  <si>
-    <t>6,999</t>
-  </si>
-  <si>
-    <t>4,844</t>
-  </si>
-  <si>
-    <t>4,299</t>
-  </si>
-  <si>
-    <t>17,999</t>
-  </si>
-  <si>
-    <t>9,699</t>
-  </si>
-  <si>
-    <t>3,649</t>
-  </si>
-  <si>
-    <t>3,644</t>
-  </si>
-  <si>
-    <t>4,515</t>
-  </si>
-  <si>
-    <t>2,246</t>
-  </si>
-  <si>
-    <t>7,510</t>
-  </si>
-  <si>
-    <t>5,347</t>
-  </si>
-  <si>
-    <t>11,999</t>
-  </si>
-  <si>
-    <t>11,799</t>
-  </si>
-  <si>
-    <t>6,910</t>
-  </si>
-  <si>
-    <t>10,421</t>
-  </si>
-  <si>
-    <t>6,437</t>
-  </si>
-  <si>
-    <t>7,990</t>
-  </si>
-  <si>
-    <t>4,415</t>
+    <t>309</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>473</t>
+    <t>14,999</t>
   </si>
   <si>
     <t>299</t>
-  </si>
-  <si>
-    <t>540</t>
   </si>
 </sst>
 </file>
@@ -741,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -749,28 +737,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -778,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -786,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -794,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -802,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -810,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -818,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -826,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -834,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -842,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -850,13 +838,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -982,16 +973,13 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -999,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1007,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1015,7 +1003,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1023,7 +1011,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1031,7 +1019,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1039,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1047,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1060,31 +1048,25 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1092,7 +1074,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1100,20 +1082,23 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1121,7 +1106,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1129,20 +1114,23 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1150,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1158,7 +1146,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1166,7 +1154,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1174,7 +1162,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1182,23 +1170,23 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/productos_amazon.xlsx
+++ b/productos_amazon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="210">
   <si>
     <t>Producto</t>
   </si>
@@ -22,337 +22,628 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>Samsung Celular Galaxy A35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
     <t>Samsung Celular Galaxy A55 5G Azul Claro 8GB RAM 256GB, Nacional con Garantía</t>
   </si>
   <si>
     <t>SAMSUNG Celular Galaxy A15 Negro 4GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
-    <t>Samsung Celular Galaxy M15 5G Gris 4GB RAM 128GB, Nacional con Garantía</t>
+    <t>SAMSUNG Galaxy A15 6+128GB 5G Azul Claro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05 4+128GB Negro</t>
   </si>
   <si>
     <t>SAMSUNG Celular Galaxy A05 Plata 4GB RAM 64GB, Nacional con Garantía</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
+    <t>Samsung Celular Galaxy M15 5G Azul obscuro 4GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
     <t>Samsung Galaxy A05S 4GB 128GB Violeta</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy A05 4+128GB Negro</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy A35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
+    <t>SAMSUNG Galaxy S24 +, Negro Onyx, 12GB_256GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A15 8+256GB Amarillo 5G</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Fit3 Grafito</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
     <t>SAMSUNG Celular Galaxy S23 FE Morado 8GB RAM 128GB, AI, Nacional con Garantía</t>
   </si>
   <si>
-    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Fit3 Grafito</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy S24 Ultra, Violeta, 12GB_256GB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 Ultra 8GB_256GB Verde Desbloqueado</t>
-  </si>
-  <si>
     <t>SAMSUNG Galaxy A55 256gb 8GB Azul Oscuro</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy A15 8+256GB Amarillo 5G</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</t>
+    <t>SAMSUNG Audifonos inalámbricos Galaxy Buds3 Grafito, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 Ultra 8GB_256GB Negro Desbloqueado</t>
+  </si>
+  <si>
+    <t>UGREEN Funda para Galaxy S24 Transparente, Case Anti-Amarillo con Protección contra Caídas, Carcasa Samsung S24 Resistente a Arañazos y Roturas</t>
+  </si>
+  <si>
+    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Negro</t>
+  </si>
+  <si>
+    <t>Bigqin 5 Piezas Funda con Protector Pantalla Compatible con Samsung Galaxy Watch 7 40mm, PC Carcasa HD Cristal Templado Protector Ultra-Thin Anti-Rasguños, 5 Colores</t>
+  </si>
+  <si>
+    <t>Protector de pantalla [2 Paq] para Samsung Galaxy S22 5G, RKINC película Mica de vidrio templado, compatible con huellas dactilares [Garantía de por vida] [Anti-rasguño] [Anti-rotura] [Sin burbujas]</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A04e Dual Sim 32GB Light Blue 3GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G, versión estadounidense, 128 GB, Phantom Gray - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S9 FE+ Menta 8GB RAM 128GB, Spen, Smart Book Cover, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy A15 5G Azull Claro, 4GB_128GB</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G, versión estadounidense, 128 GB, Phantom Gray - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Cables USB C cortos de 1 pie Fasgear 3A de carga rápida USB A a tipo C 2.0 cable de carga trenzado de sincronización de datos compatible con Galaxy S24/ i-Pad 2022/ estación de carga (4 colores)</t>
-  </si>
-  <si>
-    <t>UGREEN Funda para Galaxy S24 Transparente, Case Anti-Amarillo con Protección contra Caídas, Carcasa Samsung S24 Resistente a Arañazos y Roturas</t>
-  </si>
-  <si>
-    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Negro</t>
-  </si>
-  <si>
-    <t>X-Doria Revel Lux - Funda para iPhone X, Grado Militar, Prueba de caídas, Aluminio Coque para iPhone X, Color Negro Mate</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
+    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G desbloqueado de fábrica Versión US 5G 8K Video, 64MP High Res128GB, Phantom Violet (SM-G991UZVAXAA) (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch7 44mm Khaki, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A34 5G Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A51 6GB 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Pantalla UHD de 65 Pulgadas (UN65DU8000FXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, oro rosa)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M54 5G Azul</t>
   </si>
   <si>
     <t>Samsung Galaxy S23 5G (128 GB, 8 GB) 6.1" AMOLED 2X, cámara 50MP, Global Volte, desbloqueado para todas las compañías (con cargador súper rápido de 25 W, Negro Phantom (Reacondicionado)</t>
   </si>
   <si>
-    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S9 FE+ Menta 8GB RAM 128GB, Spen, Smart Book Cover, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Audifonos inalámbricos Galaxy Buds3 Grafito, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
+    <t>Samsung Galaxy S20 FE 5G | Teléfono celular Android desbloqueado de fabrica | 128 GB | version de EE. UU. | Camara de grado profesional, zoom espacial 30X, modo nocturno | Cloud Navy (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Protector de pantalla [3 Paq] para Samsung Galaxy A53 5G/A52s 5G/A52 4G/5G / Oppo Reno 7 4G / Reno 8 5G, RKINC película de vidrio templado, 0.33 mm [Garantía de por vida] [Anti-rasguño][Sin burbujas]</t>
+  </si>
+  <si>
+    <t>3 Unidad Funda Impermeable para Celular, Funda Flotante para iPhone, Samsung Galaxy, Huawei, HTC, LG, Sony, Nokia, Motorola y MAS</t>
+  </si>
+  <si>
+    <t>Basesailor Cable USB C 2M 2-Pack,Cable Cargador Carga Rápida Tipo C para iPhone,15,Samsung Galaxy Tab S7 S6 A7 Lite FE,Note S8 S9 S24 S23 S21 S22,A53,A33,Kindle Fire HD 10 8 2020 PaperWhite 2021,16</t>
+  </si>
+  <si>
+    <t>KepaiTok Funda para Samsung Galaxy Tab A7 Lite de 8,7 Pulgadas 2021 (SM-T220/T225/T227), 2 en 1 Resistente a los Golpes, Funda Protectora para Galaxy Tab A7 Lite con Soporte (Negra)</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A24 4G para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
+  </si>
+  <si>
+    <t>i-Blason Funda para Samsung Galaxy Z Flip 6 [Armorbox] Resistente Case con Soporte y Clip para Cinturón Carcasa Protectora con Protector de Pantalla para Galaxy Z Flip 6 y Z Flip 5 (Negro)</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A35 para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
+  </si>
+  <si>
+    <t>VRS, Uso Rudo, Shine Guard, Samsung S7 (Gray)</t>
+  </si>
+  <si>
+    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Plateado</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A35 para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Rosa)</t>
+  </si>
+  <si>
+    <t>USTIYA Cargador para Samsung Galaxy Fit 3 SM-R390 Watch USB Base de Carga de Cable Adaptador Reloj Inteligente Band Charging Accesorios</t>
+  </si>
+  <si>
+    <t>QYOUTH Funda para Samsung Galaxy Z Flip4 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip4 Plateado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG - Cargador inalámbrico de 15 W Individual, Almohadilla de Carga súper rápida inalámbrica para teléfonos y Dispositivos Galaxy, Cable USB C Incluido, versión 2022, Color Gris</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M34 5G Plata 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 3 5G F711U AT&amp;T 128GB Lavanda (reacondicionado)</t>
+  </si>
+  <si>
+    <t>Cargador rápido USB C de 45 W para cargador Samsung tipo C, USB C Cargador de teléfono Android con 1.8M Cable Carga Rápida, para Galaxy S23 Ultra/S23/S23+/S22/S22 Ultra/S22+/Note10/Note 20/S20/S21/S10</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
   </si>
   <si>
     <t>Samsung Galaxy A05s 4GB/128GB Verde (Light Green) Dual SIM SM-A057G</t>
   </si>
   <si>
-    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
-  </si>
-  <si>
-    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G desbloqueado de fábrica Versión US 5G 8K Video, 64MP High Res128GB, Phantom Violet (SM-G991UZVAXAA) (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A34 5G Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy M34 5G Azul obscuro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
+    <t>SAMSUNG Galaxy Z Fold 5 Azul Hielo 12GB_1TB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A9 4GB_64GB Color Plata</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 3 5G - Teléfono celular Android desbloqueado de fábrica, versión de EE. UU., Smartphone, modo flexible, cámara intuitiva compacta, almacenamiento de 128 GB, garantía de EE. UU.,</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A04 4GB_64GB Blanco</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Plata 8GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05s Negro, 4GB_128GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G 6.5" FHD+ 256GB 8GB Blue</t>
   </si>
   <si>
     <t>SAMSUNG Pantalla 85" UHD 4K UN85CU70000FXZX</t>
   </si>
   <si>
-    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
-  </si>
-  <si>
-    <t>Samsung Pantalla UHD de 65 Pulgadas (UN65DU8000FXZX)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, oro rosa)</t>
-  </si>
-  <si>
-    <t>Bigqin 5 Piezas Funda con Protector Pantalla Compatible con Samsung Galaxy Watch 7 40mm, PC Carcasa HD Cristal Templado Protector Ultra-Thin Anti-Rasguños, 5 Colores</t>
-  </si>
-  <si>
-    <t>Protector de pantalla [2 Paq] para Samsung Galaxy S22 5G, RKINC película Mica de vidrio templado, compatible con huellas dactilares [Garantía de por vida] [Anti-rasguño] [Anti-rotura] [Sin burbujas]</t>
-  </si>
-  <si>
-    <t>Auslbin Funda para Tablet de PU Compatible con Samsung Galaxy Tab A9 Plus / A9+ 11" 2023, Funda de Cuero para Tab con Patrones geométricos para Tab A9 Plus SM-X210 /X215, Verde</t>
-  </si>
-  <si>
-    <t>YAPANIZCEL Funda para Samsung A14 5G, para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
-  </si>
-  <si>
-    <t>3 Unidad Funda Impermeable para Celular, Funda Flotante para iPhone, Samsung Galaxy, Huawei, HTC, LG, Sony, Nokia, Motorola y MAS</t>
-  </si>
-  <si>
-    <t>SAMSUNG, Pantalla QLED de 65" Class Q60 Series, QLED 4K Smart TV, Quantum Processor Lite, Q-Symphony 3.0, Ultimate UHD Dimming, QN65Q60CDFXZA</t>
-  </si>
-  <si>
-    <t>KepaiTok Funda para Samsung Galaxy Tab A7 Lite de 8,7 Pulgadas 2021 (SM-T220/T225/T227), 2 en 1 Resistente a los Golpes, Funda Protectora para Galaxy Tab A7 Lite con Soporte (Negra)</t>
+    <t>QYOUTH Funda para Samsung Galaxy Z Flip5 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip 5 Negro)</t>
+  </si>
+  <si>
+    <t>PRESTAN - Paquete de 4 maniquíes de RCP infantiles con monitores de velocidad de compresión por PRESTAN, tono medio PP-IM-400M-MS</t>
+  </si>
+  <si>
+    <t>LENCENT Adaptador Enchufe de Viaje Universal, Cargador Internacional de 3 Puertos USB-A y 1 USB-C para Más de 200 Países Enchufe Tipo A/C/G/I (EE. UU./UE/Reino Unido/AUS), Negro</t>
+  </si>
+  <si>
+    <t>i-Blason Funda para Samsung Galaxy Z Flip 6 [Journey] Resistente Case con Protector de Pantalla y Soporte Carcasa Protectora para Galaxy Z Flip 6 y Z Flip 5 (Negro)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra 5G Desbloqueado - 128GB - Color negro (renovado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Violeta</t>
+  </si>
+  <si>
+    <t>Samsung Smartphone A25 8+256GB 5G Azul Dual SIM</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A24, 128 GB, Color Negro</t>
+  </si>
+  <si>
+    <t>Samsung S22+ 128GB Verde desbloqueado (reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05 6.7" HD+, 128GB Verde, 6GB RAM - Fotografía de Alto Nivel, Rendimiento Potente</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A15 5G 128GB, 6.5 pulgadas, GSM desbloqueado, modelo internacional A156M/DSN (azul negro)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 Ultra 5G - Versión de E.E.U.U., 128GB, Negro Fantasma (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Fold3 5G 12GB_256GB Green (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Audifonos inalambricos Galaxy Buds FE Gris, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S21+ Plus G996U 5G | 128 GB - Negro Fantasma - (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>WvinYng MRPL 25W Cargador Tipo C con Cable C-C 2M Cargador USB C Carga Rápida de Pared Compatible con Samsung Galaxy S23/S23 Ultra/S23+/S22/S22 Ultra/S22+/S21/S21+/S21 Ultra/S20/S20+/Note10/Note10+</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 256GB Grafito (reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22+ 256Gb Negro Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch6 Classic 43mm Negro, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Note 10 Desbloqueado, 256, Negro, (Aura Black) (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip5 Menta 8GB_256GB</t>
+  </si>
+  <si>
+    <t>Samsung Electronics Galaxy Note 20 Ultra 5G Teléfono celular Android desbloqueado de fábrica, Versión de Estados Unidos, 128 GB de almacenamiento, Mystic Black (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Buds 2 Pro True Auriculares inalámbricos Bluetooth, cancelación de Ruido, Sonido de Alta fidelidad, Audio 360, Ajuste cómodo, Voz HD, Resistente al Agua IPX7, Grafito [versión</t>
+  </si>
+  <si>
+    <t>Samsung Cargador Negro 25W Sin Cable</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A54 5G 6+128GB Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG - Galaxy S21 Ultra G998U 5G, smartphone Android totalmente desbloqueado, versión de EE.UU., cámara de grado profesional, video 8K, 108 MP, 128 GB - Negro fantasma (reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, azul)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S22 5G 256GB Desbloqueado de fábrica SM-S901U1 Verde (reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S20 FE 5G - Teléfono celular Android desbloqueado de fábrica, 128GB, Versión EE. UU. Smartphone con cámara de grado profesional, Space Zoom de 30X, Modo nocturno, color nube azul marino</t>
+  </si>
+  <si>
+    <t>Samsung Smartphone A25 6+128GB 5G Amarillo Dual SIM</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy M14 5G Azul obscuro</t>
+  </si>
+  <si>
+    <t>Samsung Smart TV 50" 4K Crystal UHD (UN50DU7000FXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Electronics Cargador inalámbrico Trio, Compatible con Qi, Carga hasta 3 Dispositivos a la Vez, para teléfonos Galaxy, Buds, Relojes y Dispositivos Apple iPhone, Color Negro (versión de EE.</t>
+  </si>
+  <si>
+    <t>SAMSUNG - Galaxy-A22 4GB_128GB Verde Claro</t>
+  </si>
+  <si>
+    <t>Samsung A042F-DS Galaxy A04e Dual LTE 32 GB 3 GB RAM Cobre Bronce</t>
+  </si>
+  <si>
+    <t>QILOFU Cargador Tipo C de 25w para Samsung, Samsung Cargador Rápido USB C con Cable de 6.56 pies para Samsung Galaxy S23/S23 Ultra/S23+/S22/S22 Ultra/S22+/S21/S21+/S21 Ultra/S20/S20+/Note10/Note10+</t>
+  </si>
+  <si>
+    <t>Basesailor Cable Tipo C a C de 100W con adaptador USB,3M cable para carga rápida,entrega de energía PD para iPhone 15 Plus Max 2023,MacBook,iPad Pro Air 4 5th Mini 6,Samsung Galaxy S23 S22 FE Ultra,16</t>
+  </si>
+  <si>
+    <t>Simpeak 5 Piezas Funda con Protector de Pantalla de Vidrio Compatible con Samsung Galaxy Watch 7 44mm, Carcasa HD Cobertura Completa Estuche Rígido Delgado,Clear, Titanio, Plata,Oro rosa,Verde oscuro</t>
+  </si>
+  <si>
+    <t>TSQQST Funda para Samsung Galaxy Tab A8 de 10,5 Pulgadas 2022 con Soporte/Protector de Pantalla de Cristal | SM-X200/X205/X207 Estuche para Niños | Funda Resistente Defender para Samsung A8 | Negro</t>
+  </si>
+  <si>
+    <t>Raptic Funda Uso Rudo Case Shield Pro para Samsung S22 Plus, Negro</t>
+  </si>
+  <si>
+    <t>4,699</t>
   </si>
   <si>
     <t>6,399</t>
   </si>
   <si>
-    <t>2,666</t>
-  </si>
-  <si>
-    <t>2,475</t>
-  </si>
-  <si>
-    <t>2,671</t>
-  </si>
-  <si>
     <t>2,599</t>
   </si>
   <si>
-    <t>1,895</t>
-  </si>
-  <si>
-    <t>3,779</t>
-  </si>
-  <si>
-    <t>10,330</t>
-  </si>
-  <si>
-    <t>3,699</t>
+    <t>3,499</t>
+  </si>
+  <si>
+    <t>5,299</t>
+  </si>
+  <si>
+    <t>2,259</t>
+  </si>
+  <si>
+    <t>16,199</t>
+  </si>
+  <si>
+    <t>3,298</t>
   </si>
   <si>
     <t>745</t>
   </si>
   <si>
-    <t>5,499</t>
-  </si>
-  <si>
-    <t>19,999</t>
-  </si>
-  <si>
-    <t>15,199</t>
-  </si>
-  <si>
-    <t>6,898</t>
-  </si>
-  <si>
-    <t>3,298</t>
-  </si>
-  <si>
     <t>3,966</t>
   </si>
   <si>
+    <t>7,999</t>
+  </si>
+  <si>
+    <t>6,709</t>
+  </si>
+  <si>
+    <t>2,499</t>
+  </si>
+  <si>
+    <t>15,699</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>1,699</t>
+  </si>
+  <si>
+    <t>2,240</t>
+  </si>
+  <si>
+    <t>13,495</t>
+  </si>
+  <si>
+    <t>5,978</t>
+  </si>
+  <si>
+    <t>4,634</t>
+  </si>
+  <si>
+    <t>4,844</t>
+  </si>
+  <si>
+    <t>6,999</t>
+  </si>
+  <si>
+    <t>16,499</t>
+  </si>
+  <si>
+    <t>3,649</t>
+  </si>
+  <si>
     <t>3,999</t>
   </si>
   <si>
-    <t>2,149</t>
-  </si>
-  <si>
-    <t>4,529</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>2,240</t>
-  </si>
-  <si>
-    <t>7,990</t>
-  </si>
-  <si>
-    <t>13,495</t>
-  </si>
-  <si>
-    <t>5,894</t>
-  </si>
-  <si>
-    <t>4,837</t>
-  </si>
-  <si>
-    <t>6,999</t>
-  </si>
-  <si>
-    <t>2,499</t>
-  </si>
-  <si>
     <t>9,699</t>
   </si>
   <si>
+    <t>5,320</t>
+  </si>
+  <si>
+    <t>4,681</t>
+  </si>
+  <si>
+    <t>4,499</t>
+  </si>
+  <si>
+    <t>7,680</t>
+  </si>
+  <si>
+    <t>4,299</t>
+  </si>
+  <si>
+    <t>3,639</t>
+  </si>
+  <si>
+    <t>10,104</t>
+  </si>
+  <si>
+    <t>5,497</t>
+  </si>
+  <si>
+    <t>11,999</t>
+  </si>
+  <si>
+    <t>10,999</t>
+  </si>
+  <si>
+    <t>7,397</t>
+  </si>
+  <si>
+    <t>6,958</t>
+  </si>
+  <si>
+    <t>4,247</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>5,347</t>
+  </si>
+  <si>
+    <t>4,664</t>
+  </si>
+  <si>
     <t>2,246</t>
   </si>
   <si>
-    <t>17,999</t>
-  </si>
-  <si>
-    <t>4,844</t>
-  </si>
-  <si>
-    <t>3,649</t>
-  </si>
-  <si>
-    <t>3,639</t>
-  </si>
-  <si>
-    <t>5,483</t>
-  </si>
-  <si>
-    <t>6,910</t>
-  </si>
-  <si>
-    <t>10,879</t>
-  </si>
-  <si>
-    <t>6,437</t>
-  </si>
-  <si>
-    <t>4,299</t>
+    <t>29,999</t>
+  </si>
+  <si>
+    <t>1,846</t>
+  </si>
+  <si>
+    <t>6,595</t>
+  </si>
+  <si>
+    <t>2,615</t>
+  </si>
+  <si>
+    <t>2,249</t>
   </si>
   <si>
     <t>19,376</t>
   </si>
   <si>
-    <t>15,999</t>
-  </si>
-  <si>
-    <t>11,999</t>
-  </si>
-  <si>
-    <t>7,397</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>14,999</t>
-  </si>
-  <si>
-    <t>299</t>
+    <t>13,282</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>10,094</t>
+  </si>
+  <si>
+    <t>4,999</t>
+  </si>
+  <si>
+    <t>5,303</t>
+  </si>
+  <si>
+    <t>7,347</t>
+  </si>
+  <si>
+    <t>2,605</t>
+  </si>
+  <si>
+    <t>2,999</t>
+  </si>
+  <si>
+    <t>6,299</t>
+  </si>
+  <si>
+    <t>10,047</t>
+  </si>
+  <si>
+    <t>5,294</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>7,980</t>
+  </si>
+  <si>
+    <t>8,381</t>
+  </si>
+  <si>
+    <t>5,451</t>
+  </si>
+  <si>
+    <t>7,777</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>4,749</t>
+  </si>
+  <si>
+    <t>7,199</t>
+  </si>
+  <si>
+    <t>8,714</t>
+  </si>
+  <si>
+    <t>8,062</t>
+  </si>
+  <si>
+    <t>17,499</t>
+  </si>
+  <si>
+    <t>3,809</t>
+  </si>
+  <si>
+    <t>6,290</t>
+  </si>
+  <si>
+    <t>1,371</t>
+  </si>
+  <si>
+    <t>3,104</t>
+  </si>
+  <si>
+    <t>1,789</t>
+  </si>
+  <si>
+    <t>549</t>
   </si>
 </sst>
 </file>
@@ -710,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -737,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -745,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -758,47 +1049,35 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -806,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -814,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -822,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -830,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -838,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -846,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -854,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -862,23 +1141,20 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -886,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -894,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -902,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -910,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -918,7 +1194,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -926,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -934,7 +1210,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -942,7 +1218,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -950,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -958,7 +1234,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -966,20 +1242,23 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -987,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -995,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1003,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1011,7 +1290,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1019,36 +1298,36 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1060,29 +1339,29 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1090,7 +1369,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1098,7 +1377,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1106,23 +1385,20 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1130,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1138,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1146,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1154,7 +1430,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1162,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1170,23 +1446,470 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/productos_amazon.xlsx
+++ b/productos_amazon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
   <si>
     <t>Producto</t>
   </si>
@@ -28,406 +28,490 @@
     <t>Samsung Celular Galaxy A55 5G Azul Claro 8GB RAM 256GB, Nacional con Garantía</t>
   </si>
   <si>
+    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A15 8+256GB Azul Claro 5G</t>
+  </si>
+  <si>
+    <t>Samsung Celular Galaxy M15 5G Gris 4GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G Color Azul Claro RAM 8GB_128GB l Internacional</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Fit3 Grafito</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S24 +, Negro Onyx, 12GB_256GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A05 Plata 4GB RAM 64GB, Nacional con Garantía</t>
+  </si>
+  <si>
     <t>SAMSUNG Celular Galaxy A15 Negro 4GB RAM 128GB, Nacional con Garantía</t>
   </si>
   <si>
+    <t>Samsung Galaxy A15 (A155) Dual LTE 128GB 6GB RAM Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A05S 4GB 128GB Violeta</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G, versión estadounidense, 128 GB, Phantom Gray - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>HUAWEI Nova 12 SE, 8+256,Cámara de Retrato de High-Res con 108 MP, Supercharge Turbo de 66W, OLED, Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 Ultra 8GB_256GB Negro Desbloqueado</t>
+  </si>
+  <si>
+    <t>Auslbin Tab Funda Compatible con Samsung Galaxy Tab A9 Plus / A9+ 11" 2023, Cuero PU con Relieve de Mariposa con función de Soporte, para Tab A9+ / SM-X210 / X215, Púrpura</t>
+  </si>
+  <si>
+    <t>USB C to USB-A Fast Charger Cable Data Transfer for Charger Cord Nylon Braided Type C Charging for iPhone 15/15 Pro Max, Samsung Galaxy, iPad Pro，Tablets, LaptoLaptops,Power Bank,3.3ft (green)</t>
+  </si>
+  <si>
+    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Negro</t>
+  </si>
+  <si>
+    <t>FITUEYES Soporte para TV de 32 a 60 Pulgadas hasta 50kg Inclinable Altura Ajustable Pedestal de TV OLED LCD</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A04e 3GB_32GB Bronce</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy S23 FE Grafito 8GB RAM 128GB, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A05s 4GB/128GB Verde (Light Green) Dual SIM SM-A057G</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A51 6GB 128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05 4+128GB Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A14 5G Plata</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05s Negro, 4GB_128GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05 4+128GB Verde</t>
+  </si>
+  <si>
+    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy M34 5G Azul obscuro 6GB RAM 128GB, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
+  </si>
+  <si>
     <t>SAMSUNG Galaxy A15 6+128GB 5G Azul Claro</t>
   </si>
   <si>
-    <t>SAMSUNG Celular Galaxy M35 5G Azul Claro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Light Blue 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05 4+128GB Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A05 Plata 4GB RAM 64GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy M15 5G Azul obscuro 4GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Celular Galaxy M55 5G Verde 8GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A05S 4GB 128GB Violeta</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy S24 +, Negro Onyx, 12GB_256GB</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A15 8+256GB Amarillo 5G</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Fit3 Grafito</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy S23 FE Morado 8GB RAM 128GB, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 256gb 8GB Azul Oscuro</t>
+    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A9 4GB_64GB Color Gris</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A04e Dual Sim 32GB Light Blue 3GB Ram Desbloqueado 6.5"</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung S22+ 128GB Verde desbloqueado (reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
+  </si>
+  <si>
+    <t>Bigqin 5 Piezas Funda con Protector Pantalla Compatible con Samsung Galaxy Watch 7 40mm, PC Carcasa HD Cristal Templado Protector Ultra-Thin Anti-Rasguños, 5 Colores</t>
+  </si>
+  <si>
+    <t>Protector de pantalla [2 Paq] para Samsung Galaxy S22 5G, RKINC película Mica de vidrio templado, compatible con huellas dactilares [Garantía de por vida] [Anti-rasguño] [Anti-rotura] [Sin burbujas]</t>
+  </si>
+  <si>
+    <t>Protector de pantalla [3 Paq] para Samsung Galaxy A53 5G/A52s 5G/A52 4G/5G / Oppo Reno 7 4G / Reno 8 5G, RKINC película de vidrio templado, 0.33 mm [Garantía de por vida] [Anti-rasguño][Sin burbujas]</t>
+  </si>
+  <si>
+    <t>LENCENT Adaptador Enchufe de Viaje Universal, Cargador Internacional de 3 Puertos USB-A y 1 USB-C para Más de 200 Países Enchufe Tipo A/C/G/I (EE. UU./UE/Reino Unido/AUS), Negro</t>
+  </si>
+  <si>
+    <t>VRS, Uso Rudo, Shine Guard, Samsung S7 (Gray)</t>
+  </si>
+  <si>
+    <t>Suoman 2+2 Piezas Protector Pantalla para Samsung Galaxy Watch 7/6/5/4 44mm,Vidrio Templado Privacidad Protector+HD Protector para Galaxy Watch 7/6/5/4 44mm Smartwatch</t>
+  </si>
+  <si>
+    <t>Suoman 2+2 Piezas Protector Pantalla para Samsung Galaxy Watch 7/6/5/4 40mm,Vidrio Templado Privacidad Protector+HD Protector para Galaxy Watch 7/6/5/4 40mm Smartwatch</t>
+  </si>
+  <si>
+    <t>Cables USB C cortos de 1 pie Fasgear 3A de carga rápida USB A a tipo C 2.0 cable de carga trenzado de sincronización de datos compatible con Galaxy S24/ i-Pad 2022/ estación de carga (4 colores)</t>
+  </si>
+  <si>
+    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Plateado</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A24 4G para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Morado)</t>
+  </si>
+  <si>
+    <t>i-Blason Funda para Samsung Galaxy Z Flip 6 [Armorbox] Resistente Case con Soporte y Clip para Cinturón Carcasa Protectora con Protector de Pantalla para Galaxy Z Flip 6 y Z Flip 5 (Negro)</t>
+  </si>
+  <si>
+    <t>KepaiTok Funda para Samsung Galaxy Tab A7 Lite de 8,7 Pulgadas 2021 (SM-T220/T225/T227), 2 en 1 Resistente a los Golpes, Funda Protectora para Galaxy Tab A7 Lite con Soporte (Negra)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05 6.7" HD+, 128GB Verde, 6GB RAM - Fotografía de Alto Nivel, Rendimiento Potente</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A15 5G Azull Claro, 4GB_128GB</t>
   </si>
   <si>
     <t>SAMSUNG Audifonos inalámbricos Galaxy Buds3 Grafito, AI, Nacional con Garantía</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 Ultra 8GB_256GB Negro Desbloqueado</t>
-  </si>
-  <si>
-    <t>UGREEN Funda para Galaxy S24 Transparente, Case Anti-Amarillo con Protección contra Caídas, Carcasa Samsung S24 Resistente a Arañazos y Roturas</t>
-  </si>
-  <si>
-    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Negro</t>
-  </si>
-  <si>
-    <t>Bigqin 5 Piezas Funda con Protector Pantalla Compatible con Samsung Galaxy Watch 7 40mm, PC Carcasa HD Cristal Templado Protector Ultra-Thin Anti-Rasguños, 5 Colores</t>
-  </si>
-  <si>
-    <t>Protector de pantalla [2 Paq] para Samsung Galaxy S22 5G, RKINC película Mica de vidrio templado, compatible con huellas dactilares [Garantía de por vida] [Anti-rasguño] [Anti-rotura] [Sin burbujas]</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A04e Dual Sim 32GB Light Blue 3GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05S 4GB 128GB Negro</t>
-  </si>
-  <si>
-    <t>Samsung Pantalla QLED 4K de 55 Pulgadas (QN55Q65DAFXZX)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A35 8GB 256GB 5G Negro</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G, versión estadounidense, 128 GB, Phantom Gray - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy A25 5G 8GB 256GB 6.5" FHD+ 120 Hz 50 MP Blue Black</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S9 FE+ Menta 8GB RAM 128GB, Spen, Smart Book Cover, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 Ultra Beige 12GB RAM 512GB, AI, Spen, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG R930 Galaxy Watch 6 BT 40 mm Modelo UE Graphite</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A15 5G Azull Claro, 4GB_128GB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 256GB Bora Purple (Versión Nacional)</t>
+    <t>SAMSUNG Galaxy M54 5G Azul</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A54 5G 6+128GB Negro (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
+  </si>
+  <si>
+    <t>SAMSUNG Audifonos inalambricos Galaxy Buds FE Gris, AI, Nacional con Garantía</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy A35 8GB 128GB 5G Negro</t>
   </si>
   <si>
+    <t>SAMSUNG Galaxy Z Fold 5 Azul Hielo 12GB_1TB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A34 5G, 6 Gb Ram, 128 Gb Almacenamiento, Color Verde</t>
+  </si>
+  <si>
+    <t>Cargador rápido USB C de 45 W para cargador Samsung tipo C, USB C Cargador de teléfono Android con 1.8M Cable Carga Rápida, para Galaxy S23 Ultra/S23/S23+/S22/S22 Ultra/S22+/Note10/Note 20/S20/S21/S10</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A05s - Negro 6GB RAM, 128GB Almacenamiento - Rendimiento Eficiente, Cámara Triple y Pantalla Vibrante</t>
+  </si>
+  <si>
     <t>Samsung Galaxy S21 5G desbloqueado de fábrica Versión US 5G 8K Video, 64MP High Res128GB, Phantom Violet (SM-G991UZVAXAA) (Reacondicionado)</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy Watch7 44mm Khaki, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8Gb 128Gb 5g Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A55 8GB 128GB 5G Azul</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S6 Lite 2024 Color Verde Claro RAM 4GB 128GB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A25 5G Dual Sim 128GB Blue Black 6GB Ram Desbloqueado 6.5"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A34 5G Negro</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra, 5G, desbloqueado de fábrica 128GB, SM-S908U1 (reacondicionado) (borgoña)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Black - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A51 6GB 128GB Negro</t>
+    <t>SAMSUNG Galaxy A05s Plateado, 4GB_128GB</t>
+  </si>
+  <si>
+    <t>WvinYng MRPL 25W Cargador Tipo C con Cable C-C 2M Cargador USB C Carga Rápida de Pared Compatible con Samsung Galaxy S23/S23 Ultra/S23+/S22/S22 Ultra/S22+/S21/S21+/S21 Ultra/S20/S20+/Note10/Note10+</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S10+ Plus 128 GB Negro Desbloqueado Prism Black(Reacondicionado)</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung Galaxy a25 5G Case, Carcasa Acrílico para Mujer compuesta de Tres Piezas con Brillos Protección de Absorción de Choque Esquinas Anti Golpes Uso Rudo (Rosa)</t>
+  </si>
+  <si>
+    <t>QYOUTH Funda para Samsung Galaxy Z Flip4 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip4 Plateado)</t>
+  </si>
+  <si>
+    <t>QYOUTH Funda para Samsung Galaxy Z Flip5 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip 5 Negro)</t>
+  </si>
+  <si>
+    <t>YAPANIZCEL Funda para Samsung A35 para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S20 FE 5G | Teléfono celular Android desbloqueado de fabrica | 128 GB | version de EE. UU. | Camara de grado profesional, zoom espacial 30X, modo nocturno | Cloud Navy (Reacondicionado)</t>
   </si>
   <si>
     <t>Samsung Pantalla UHD de 65 Pulgadas (UN65DU8000FXZX)</t>
   </si>
   <si>
-    <t>SAMSUNG Celular Galaxy S23 128GB Negro</t>
+    <t>SAMSUNG Galaxy A05 128 GB Negro 6 GB RAM</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Violeta</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 3 5G - Teléfono celular Android desbloqueado de fábrica, versión de EE. UU., Smartphone, modo flexible, cámara intuitiva compacta, almacenamiento de 128 GB, garantía de EE. UU.,</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - (128 GB, color morado bora) (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG - Teléfono Galaxy S10 desbloqueado de fábrica con 128 GB - Prism Black (reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Pantalla 58" UHD 4K UN58CU7000FXZX</t>
+  </si>
+  <si>
+    <t>SAMSUNG - Cargador inalámbrico de 15 W Individual, Almohadilla de Carga súper rápida inalámbrica para teléfonos y Dispositivos Galaxy, Cable USB C Incluido, versión 2022, Color Gris</t>
+  </si>
+  <si>
+    <t>Samsung Smart TV 50" 4K Crystal UHD (UN50DU7000FXZX)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy S21+ Plus G996U 5G | 128 GB - Negro Fantasma - (Reacondicionado)</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, oro rosa)</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy M54 5G Azul</t>
+    <t>SAMSUNG Galaxy A04 4GB_64GB Blanco</t>
+  </si>
+  <si>
+    <t>SAMSUNG Celular Galaxy Z Flip 6 Azul Claro 12GB RAM 256GB, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip3 5G (128GB, 8GB) 6.7 AMOLED, Snapdragon 888, 5G Volte, Totalmente Desbloqueado, F711U, Lavanda (Renovado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy SmartTag2 - Localizador Bluetooth, localizador GPS para Llaves, Cartera, Equipaje, Mascotas, Uso con teléfonos y Tablets Android 11 o Posterior - 1 Unidad, Negro</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 10+ Celular desbloqueado de fábrica con 256 GB Aura Black/ Note10+ (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Cargador Negro 25W Sin Cable</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A24, 128 GB, Color Negro</t>
   </si>
   <si>
     <t>Samsung Galaxy S23 5G (128 GB, 8 GB) 6.1" AMOLED 2X, cámara 50MP, Global Volte, desbloqueado para todas las compañías (con cargador súper rápido de 25 W, Negro Phantom (Reacondicionado)</t>
   </si>
   <si>
-    <t>Samsung Galaxy S20 FE 5G | Teléfono celular Android desbloqueado de fabrica | 128 GB | version de EE. UU. | Camara de grado profesional, zoom espacial 30X, modo nocturno | Cloud Navy (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Protector de pantalla [3 Paq] para Samsung Galaxy A53 5G/A52s 5G/A52 4G/5G / Oppo Reno 7 4G / Reno 8 5G, RKINC película de vidrio templado, 0.33 mm [Garantía de por vida] [Anti-rasguño][Sin burbujas]</t>
-  </si>
-  <si>
-    <t>3 Unidad Funda Impermeable para Celular, Funda Flotante para iPhone, Samsung Galaxy, Huawei, HTC, LG, Sony, Nokia, Motorola y MAS</t>
-  </si>
-  <si>
-    <t>Basesailor Cable USB C 2M 2-Pack,Cable Cargador Carga Rápida Tipo C para iPhone,15,Samsung Galaxy Tab S7 S6 A7 Lite FE,Note S8 S9 S24 S23 S21 S22,A53,A33,Kindle Fire HD 10 8 2020 PaperWhite 2021,16</t>
-  </si>
-  <si>
-    <t>KepaiTok Funda para Samsung Galaxy Tab A7 Lite de 8,7 Pulgadas 2021 (SM-T220/T225/T227), 2 en 1 Resistente a los Golpes, Funda Protectora para Galaxy Tab A7 Lite con Soporte (Negra)</t>
-  </si>
-  <si>
-    <t>YAPANIZCEL Funda para Samsung A24 4G para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
-  </si>
-  <si>
-    <t>i-Blason Funda para Samsung Galaxy Z Flip 6 [Armorbox] Resistente Case con Soporte y Clip para Cinturón Carcasa Protectora con Protector de Pantalla para Galaxy Z Flip 6 y Z Flip 5 (Negro)</t>
-  </si>
-  <si>
-    <t>YAPANIZCEL Funda para Samsung A35 para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Transparente)</t>
-  </si>
-  <si>
-    <t>VRS, Uso Rudo, Shine Guard, Samsung S7 (Gray)</t>
-  </si>
-  <si>
-    <t>Fanmingsidi Funda para Samsung Galaxy A04 Carcasa con 360 Grados Metálico Anillo Hard PC Silicona Antigolpes Case para Samsung Galaxy A04 Plateado</t>
-  </si>
-  <si>
-    <t>YAPANIZCEL Funda para Samsung A35 para Mujer con Brillantes COMPUESTA DE Tres Piezas Resistente (Rosa)</t>
-  </si>
-  <si>
-    <t>USTIYA Cargador para Samsung Galaxy Fit 3 SM-R390 Watch USB Base de Carga de Cable Adaptador Reloj Inteligente Band Charging Accesorios</t>
-  </si>
-  <si>
-    <t>QYOUTH Funda para Samsung Galaxy Z Flip4 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip4 Plateado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A54 256GB_5G Negro</t>
-  </si>
-  <si>
-    <t>SAMSUNG - Cargador inalámbrico de 15 W Individual, Almohadilla de Carga súper rápida inalámbrica para teléfonos y Dispositivos Galaxy, Cable USB C Incluido, versión 2022, Color Gris</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+, 8GB RAM, 128GB, Color Gris Grafito</t>
-  </si>
-  <si>
-    <t>SAMSUNG Celular Galaxy M34 5G Plata 6GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 3 5G F711U AT&amp;T 128GB Lavanda (reacondicionado)</t>
-  </si>
-  <si>
-    <t>Cargador rápido USB C de 45 W para cargador Samsung tipo C, USB C Cargador de teléfono Android con 1.8M Cable Carga Rápida, para Galaxy S23 Ultra/S23/S23+/S22/S22 Ultra/S22+/Note10/Note 20/S20/S21/S10</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 5G, versión estadounidense, 128GB, Phantom Pink - desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A05s 4GB/128GB Verde (Light Green) Dual SIM SM-A057G</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Fold 5 Azul Hielo 12GB_1TB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab A9 4GB_64GB Color Plata</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 3 5G - Teléfono celular Android desbloqueado de fábrica, versión de EE. UU., Smartphone, modo flexible, cámara intuitiva compacta, almacenamiento de 128 GB, garantía de EE. UU.,</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A04 4GB_64GB Blanco</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+ Plata 8GB RAM 128GB, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05s Negro, 4GB_128GB</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A25 5G 6.5" FHD+ 256GB 8GB Blue</t>
-  </si>
-  <si>
-    <t>SAMSUNG Pantalla 85" UHD 4K UN85CU70000FXZX</t>
-  </si>
-  <si>
-    <t>QYOUTH Funda para Samsung Galaxy Z Flip5 con protección de bisagras,Cubierta Protectora con Textura galvanizada Resistente a Impactos y caídas (Z Flip 5 Negro)</t>
+    <t>Samsung Galaxy S22+ 256Gb Negro Desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Electronics Reloj Inteligente Galaxy Watch 4 de 40 mm con Monitor ECG para Salud, Fitness, Correr, ciclos de sueño, detección de caídas GPS, versión Estadounidense, Color Negro</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch6 Classic 43mm Negro, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S20 FE 5G - Teléfono celular Android desbloqueado de fábrica, 128GB, Versión EE. UU. Smartphone con cámara de grado profesional, Space Zoom de 30X, Modo nocturno, color nube azul marino</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21 Ultra 5G - Versión de E.E.U.U., 128GB, Negro Fantasma (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ 5G, versión estadounidense, 128GB, Phantom Violet - desbloqueado (Reacondicionado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Wireless Charger 15 W Duo Blanco</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Z Flip5 Menta 8GB_256GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra 5G Desbloqueado - 128GB - Color negro (renovado)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy A15 5G 128GB, 6.5 pulgadas, GSM desbloqueado, modelo internacional A156M/DSN (azul negro)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch7 40mm Beige, AI, Nacional con Garantía</t>
+  </si>
+  <si>
+    <t>Samsung Televisión CU8000 Crystal LED Smart TV de 43", Resolución 3840 x 2160 (Ultra HD 4K), HDR, Bluetooth.</t>
   </si>
   <si>
     <t>PRESTAN - Paquete de 4 maniquíes de RCP infantiles con monitores de velocidad de compresión por PRESTAN, tono medio PP-IM-400M-MS</t>
   </si>
   <si>
-    <t>LENCENT Adaptador Enchufe de Viaje Universal, Cargador Internacional de 3 Puertos USB-A y 1 USB-C para Más de 200 Países Enchufe Tipo A/C/G/I (EE. UU./UE/Reino Unido/AUS), Negro</t>
-  </si>
-  <si>
-    <t>i-Blason Funda para Samsung Galaxy Z Flip 6 [Journey] Resistente Case con Protector de Pantalla y Soporte Carcasa Protectora para Galaxy Z Flip 6 y Z Flip 5 (Negro)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra 5G Desbloqueado - 128GB - Color negro (renovado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A35 8GB 128GB 5G Violeta</t>
-  </si>
-  <si>
-    <t>Samsung Smartphone A25 8+256GB 5G Azul Dual SIM</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A24, 128 GB, Color Negro</t>
-  </si>
-  <si>
-    <t>Samsung S22+ 128GB Verde desbloqueado (reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A05 6.7" HD+, 128GB Verde, 6GB RAM - Fotografía de Alto Nivel, Rendimiento Potente</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A15 5G 128GB, 6.5 pulgadas, GSM desbloqueado, modelo internacional A156M/DSN (azul negro)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S21 Ultra 5G - Versión de E.E.U.U., 128GB, Negro Fantasma (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Fold3 5G 12GB_256GB Green (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Audifonos inalambricos Galaxy Buds FE Gris, AI, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy S21+ Plus G996U 5G | 128 GB - Negro Fantasma - (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>WvinYng MRPL 25W Cargador Tipo C con Cable C-C 2M Cargador USB C Carga Rápida de Pared Compatible con Samsung Galaxy S23/S23 Ultra/S23+/S22/S22 Ultra/S22+/S21/S21+/S21 Ultra/S20/S20+/Note10/Note10+</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 256GB Grafito (reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22+ 256Gb Negro Desbloqueado (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Watch6 Classic 43mm Negro, Nacional con Garantía</t>
-  </si>
-  <si>
-    <t>SAMSUNG Note 10 Desbloqueado, 256, Negro, (Aura Black) (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip5 Menta 8GB_256GB</t>
-  </si>
-  <si>
-    <t>Samsung Electronics Galaxy Note 20 Ultra 5G Teléfono celular Android desbloqueado de fábrica, Versión de Estados Unidos, 128 GB de almacenamiento, Mystic Black (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Buds 2 Pro True Auriculares inalámbricos Bluetooth, cancelación de Ruido, Sonido de Alta fidelidad, Audio 360, Ajuste cómodo, Voz HD, Resistente al Agua IPX7, Grafito [versión</t>
-  </si>
-  <si>
-    <t>Samsung Cargador Negro 25W Sin Cable</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy A54 5G 6+128GB Negro (Reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG - Galaxy S21 Ultra G998U 5G, smartphone Android totalmente desbloqueado, versión de EE.UU., cámara de grado profesional, video 8K, 108 MP, 128 GB - Negro fantasma (reacondicionado)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - Desbloqueado de fábrica (256 GB, azul)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy S22 5G 256GB Desbloqueado de fábrica SM-S901U1 Verde (reacondicionado)</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S20 FE 5G - Teléfono celular Android desbloqueado de fábrica, 128GB, Versión EE. UU. Smartphone con cámara de grado profesional, Space Zoom de 30X, Modo nocturno, color nube azul marino</t>
-  </si>
-  <si>
-    <t>Samsung Smartphone A25 6+128GB 5G Amarillo Dual SIM</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy M14 5G Azul obscuro</t>
-  </si>
-  <si>
-    <t>Samsung Smart TV 50" 4K Crystal UHD (UN50DU7000FXZX)</t>
-  </si>
-  <si>
-    <t>SAMSUNG Electronics Cargador inalámbrico Trio, Compatible con Qi, Carga hasta 3 Dispositivos a la Vez, para teléfonos Galaxy, Buds, Relojes y Dispositivos Apple iPhone, Color Negro (versión de EE.</t>
-  </si>
-  <si>
-    <t>SAMSUNG - Galaxy-A22 4GB_128GB Verde Claro</t>
-  </si>
-  <si>
-    <t>Samsung A042F-DS Galaxy A04e Dual LTE 32 GB 3 GB RAM Cobre Bronce</t>
-  </si>
-  <si>
-    <t>QILOFU Cargador Tipo C de 25w para Samsung, Samsung Cargador Rápido USB C con Cable de 6.56 pies para Samsung Galaxy S23/S23 Ultra/S23+/S22/S22 Ultra/S22+/S21/S21+/S21 Ultra/S20/S20+/Note10/Note10+</t>
-  </si>
-  <si>
-    <t>Basesailor Cable Tipo C a C de 100W con adaptador USB,3M cable para carga rápida,entrega de energía PD para iPhone 15 Plus Max 2023,MacBook,iPad Pro Air 4 5th Mini 6,Samsung Galaxy S23 S22 FE Ultra,16</t>
-  </si>
-  <si>
-    <t>Simpeak 5 Piezas Funda con Protector de Pantalla de Vidrio Compatible con Samsung Galaxy Watch 7 44mm, Carcasa HD Cobertura Completa Estuche Rígido Delgado,Clear, Titanio, Plata,Oro rosa,Verde oscuro</t>
-  </si>
-  <si>
-    <t>TSQQST Funda para Samsung Galaxy Tab A8 de 10,5 Pulgadas 2022 con Soporte/Protector de Pantalla de Cristal | SM-X200/X205/X207 Estuche para Niños | Funda Resistente Defender para Samsung A8 | Negro</t>
-  </si>
-  <si>
-    <t>Raptic Funda Uso Rudo Case Shield Pro para Samsung S22 Plus, Negro</t>
-  </si>
-  <si>
-    <t>4,699</t>
+    <t>Cargador Celular Inteligente GaN Carga Rápida USB C 35W NEXUS Cable USB C 2m incluido Compatible con todas las marcas iPhone 12 al 15 Samsung S22 S23 S24 Xiaomi o Audífonos Tablets Drones Cámaras ipad</t>
+  </si>
+  <si>
+    <t>Cargador Celular Inteligente GaN Carga Rápida USB C 33W NEXUS Cable USB C 2m incluido Compatible con todas las marcas iPhone 12 al 15 Samsung S22 S23 S24 Xiaomi o Audífonos Tablets Drones Cámaras ipad</t>
+  </si>
+  <si>
+    <t>Cargador Celular Inteligente GAN Carga Rápida USB C 100W Nexus Cable USB C 2m Incluido Compatible con Todas Las Marcas iPhone 12 aL 15 Samsung S22 S23 S24 Xiaomi Audífonos Tablets Drones Laptop iPad</t>
+  </si>
+  <si>
+    <t>4,323</t>
   </si>
   <si>
     <t>6,399</t>
   </si>
   <si>
+    <t>5,299</t>
+  </si>
+  <si>
+    <t>3,499</t>
+  </si>
+  <si>
+    <t>2,240</t>
+  </si>
+  <si>
+    <t>3,399</t>
+  </si>
+  <si>
+    <t>2,945</t>
+  </si>
+  <si>
+    <t>3,616</t>
+  </si>
+  <si>
+    <t>5,523</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>14,609</t>
+  </si>
+  <si>
     <t>2,599</t>
   </si>
   <si>
-    <t>3,499</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>2,259</t>
-  </si>
-  <si>
-    <t>16,199</t>
-  </si>
-  <si>
-    <t>3,298</t>
-  </si>
-  <si>
-    <t>745</t>
+    <t>2,759</t>
+  </si>
+  <si>
+    <t>4,346</t>
+  </si>
+  <si>
+    <t>6,549</t>
+  </si>
+  <si>
+    <t>3,985</t>
+  </si>
+  <si>
+    <t>15,699</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>1,660</t>
+  </si>
+  <si>
+    <t>6,389</t>
+  </si>
+  <si>
+    <t>15,999</t>
+  </si>
+  <si>
+    <t>3,644</t>
+  </si>
+  <si>
+    <t>6,484</t>
+  </si>
+  <si>
+    <t>5,397</t>
   </si>
   <si>
     <t>3,966</t>
   </si>
   <si>
-    <t>7,999</t>
-  </si>
-  <si>
-    <t>6,709</t>
-  </si>
-  <si>
-    <t>2,499</t>
-  </si>
-  <si>
-    <t>15,699</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>199</t>
+    <t>3,172</t>
+  </si>
+  <si>
+    <t>5,487</t>
+  </si>
+  <si>
+    <t>4,299</t>
+  </si>
+  <si>
+    <t>2,372</t>
+  </si>
+  <si>
+    <t>2,249</t>
+  </si>
+  <si>
+    <t>3,649</t>
+  </si>
+  <si>
+    <t>2,014</t>
+  </si>
+  <si>
+    <t>13,495</t>
+  </si>
+  <si>
+    <t>6,437</t>
+  </si>
+  <si>
+    <t>6,910</t>
+  </si>
+  <si>
+    <t>2,899</t>
+  </si>
+  <si>
+    <t>9,699</t>
+  </si>
+  <si>
+    <t>1,999</t>
+  </si>
+  <si>
+    <t>4,726</t>
+  </si>
+  <si>
+    <t>7,427</t>
+  </si>
+  <si>
+    <t>10,199</t>
   </si>
   <si>
     <t>218</t>
@@ -436,214 +520,163 @@
     <t>159</t>
   </si>
   <si>
-    <t>1,699</t>
-  </si>
-  <si>
-    <t>2,240</t>
-  </si>
-  <si>
-    <t>13,495</t>
-  </si>
-  <si>
-    <t>5,978</t>
-  </si>
-  <si>
-    <t>4,634</t>
-  </si>
-  <si>
-    <t>4,844</t>
-  </si>
-  <si>
-    <t>6,999</t>
-  </si>
-  <si>
-    <t>16,499</t>
-  </si>
-  <si>
-    <t>3,649</t>
-  </si>
-  <si>
-    <t>3,999</t>
-  </si>
-  <si>
-    <t>9,699</t>
-  </si>
-  <si>
-    <t>5,320</t>
-  </si>
-  <si>
-    <t>4,681</t>
-  </si>
-  <si>
-    <t>4,499</t>
-  </si>
-  <si>
-    <t>7,680</t>
-  </si>
-  <si>
-    <t>4,299</t>
-  </si>
-  <si>
-    <t>3,639</t>
-  </si>
-  <si>
-    <t>10,104</t>
-  </si>
-  <si>
-    <t>5,497</t>
+    <t>149</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>2,605</t>
+  </si>
+  <si>
+    <t>3,889</t>
+  </si>
+  <si>
+    <t>2,299</t>
+  </si>
+  <si>
+    <t>6,958</t>
+  </si>
+  <si>
+    <t>4,749</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>5,315</t>
+  </si>
+  <si>
+    <t>29,999</t>
+  </si>
+  <si>
+    <t>5,499</t>
+  </si>
+  <si>
+    <t>2,640</t>
+  </si>
+  <si>
+    <t>4,532</t>
+  </si>
+  <si>
+    <t>2,549</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>4,427</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>4,229</t>
   </si>
   <si>
     <t>11,999</t>
   </si>
   <si>
-    <t>10,999</t>
-  </si>
-  <si>
-    <t>7,397</t>
-  </si>
-  <si>
-    <t>6,958</t>
-  </si>
-  <si>
-    <t>4,247</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>5,347</t>
-  </si>
-  <si>
-    <t>4,664</t>
-  </si>
-  <si>
-    <t>2,246</t>
-  </si>
-  <si>
-    <t>29,999</t>
-  </si>
-  <si>
-    <t>1,846</t>
-  </si>
-  <si>
-    <t>6,595</t>
+    <t>2,645</t>
+  </si>
+  <si>
+    <t>4,999</t>
+  </si>
+  <si>
+    <t>3,797</t>
+  </si>
+  <si>
+    <t>10,749</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>6,290</t>
+  </si>
+  <si>
+    <t>5,172</t>
+  </si>
+  <si>
+    <t>7,497</t>
   </si>
   <si>
     <t>2,615</t>
   </si>
   <si>
-    <t>2,249</t>
-  </si>
-  <si>
-    <t>19,376</t>
+    <t>23,639</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>6,447</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>5,303</t>
+  </si>
+  <si>
+    <t>8,379</t>
+  </si>
+  <si>
+    <t>8,249</t>
+  </si>
+  <si>
+    <t>2,072</t>
+  </si>
+  <si>
+    <t>17,499</t>
+  </si>
+  <si>
+    <t>6,854</t>
+  </si>
+  <si>
+    <t>4,937</t>
+  </si>
+  <si>
+    <t>1,899</t>
+  </si>
+  <si>
+    <t>10,347</t>
+  </si>
+  <si>
+    <t>3,076</t>
+  </si>
+  <si>
+    <t>4,729</t>
   </si>
   <si>
     <t>13,282</t>
   </si>
   <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>10,094</t>
-  </si>
-  <si>
-    <t>4,999</t>
-  </si>
-  <si>
-    <t>5,303</t>
-  </si>
-  <si>
-    <t>7,347</t>
-  </si>
-  <si>
-    <t>2,605</t>
-  </si>
-  <si>
-    <t>2,999</t>
-  </si>
-  <si>
-    <t>6,299</t>
-  </si>
-  <si>
-    <t>10,047</t>
-  </si>
-  <si>
-    <t>5,294</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>7,980</t>
-  </si>
-  <si>
-    <t>8,381</t>
-  </si>
-  <si>
-    <t>5,451</t>
-  </si>
-  <si>
-    <t>7,777</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>4,749</t>
-  </si>
-  <si>
-    <t>7,199</t>
-  </si>
-  <si>
-    <t>8,714</t>
-  </si>
-  <si>
-    <t>8,062</t>
-  </si>
-  <si>
-    <t>17,499</t>
-  </si>
-  <si>
-    <t>3,809</t>
-  </si>
-  <si>
-    <t>6,290</t>
-  </si>
-  <si>
-    <t>1,371</t>
-  </si>
-  <si>
-    <t>3,104</t>
-  </si>
-  <si>
-    <t>1,789</t>
-  </si>
-  <si>
-    <t>549</t>
+    <t>586</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1,369</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1043,41 +1076,56 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1085,23 +1133,20 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1109,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1117,23 +1162,20 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1141,20 +1183,23 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1162,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1170,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1178,7 +1223,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1186,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1194,23 +1239,20 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1218,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1226,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1234,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1242,32 +1284,26 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
@@ -1289,22 +1325,22 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -1334,13 +1370,16 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1348,20 +1387,23 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1369,36 +1411,36 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1406,7 +1448,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1414,7 +1456,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1422,7 +1464,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1430,7 +1472,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1438,7 +1480,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1446,7 +1488,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1454,7 +1496,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1462,454 +1504,466 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
